--- a/biology/Botanique/Myosotis_nemorosa/Myosotis_nemorosa.xlsx
+++ b/biology/Botanique/Myosotis_nemorosa/Myosotis_nemorosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myosotis nemorosa, le myosotis à poils réfractés, parfois appelé myosotis des bois (ce qui prête à confusion avec Myosotis sylvatica) est une plante herbacée annuelle du genre Myosotis et de la famille des Boraginaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ressemble à Myosotis scorpioides L. mais la tige est anguleuse et garnie de poils recourbés vers le bas dans sa partie inférieure, les feuilles inférieures en sont parfois munies aussi sur leur face inférieure, les fleurs sont plus petites (la corolle, bleu pâle, parfois rose mesure de 4 à 6 mm de diamètre). Floraison de mai à juillet.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe centrale et méridionale, presque partout en France.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Prés et bois humides, lieux marécageux, bords des étangs, des cours d'eau, fossés. 
 Sur les autres projets Wikimedia :
